--- a/biology/Zoologie/Ensatina_eschscholtzii/Ensatina_eschscholtzii.xlsx
+++ b/biology/Zoologie/Ensatina_eschscholtzii/Ensatina_eschscholtzii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ensatina eschscholtzii, unique représentant du genre Ensatina, est une espèce d'urodèles de la famille des Plethodontidae[1]. C'est un exemple d'espèce en anneau. Cette espèce de salamandre porte le nom vernaculaire de salamandre variable.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensatina eschscholtzii, unique représentant du genre Ensatina, est une espèce d'urodèles de la famille des Plethodontidae. C'est un exemple d'espèce en anneau. Cette espèce de salamandre porte le nom vernaculaire de salamandre variable.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ensatina eschscholtzii est une espèce nocturne[2].
-Ne possédant pas de poumons, cet amphibien respire grâce à sa peau qui reste constamment humide. Il possède néanmoins des narines qui lui servent exclusivement pour l'odorat. Des glandes de poisons sont situées dans sa queue pour se défendre, mais des prédateurs comme le raton-laveur arrive à ne pas manger la queue et donc éviter le poisons[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ensatina eschscholtzii est une espèce nocturne.
+Ne possédant pas de poumons, cet amphibien respire grâce à sa peau qui reste constamment humide. Il possède néanmoins des narines qui lui servent exclusivement pour l'odorat. Des glandes de poisons sont situées dans sa queue pour se défendre, mais des prédateurs comme le raton-laveur arrive à ne pas manger la queue et donc éviter le poisons.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 au Canada dans le sud-ouest de la Colombie-Britannique ;
 aux États-Unis en Californie, en Oregon et au Washington ;
 au Mexique dans l'extrême Nord de la Basse-Californie.
@@ -578,9 +594,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La reproduction se déroule plutôt dans les périodes les plus froides. Puis en été, les femelles vont pondre une douzaine d’œufs dans des recoins marécageux. Les nouveau-nés sortiront de leurs œufs environ 4 mois plus tard et ne passeront pas par le stade larvaire de têtard. Son cycle de vie est donc entièrement terrestre, ce qui est rare pour une salamandre. Ils ont directement la forme des parents. Ils sortiront du nid pendant les premières pluies[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La reproduction se déroule plutôt dans les périodes les plus froides. Puis en été, les femelles vont pondre une douzaine d’œufs dans des recoins marécageux. Les nouveau-nés sortiront de leurs œufs environ 4 mois plus tard et ne passeront pas par le stade larvaire de têtard. Son cycle de vie est donc entièrement terrestre, ce qui est rare pour une salamandre. Ils ont directement la forme des parents. Ils sortiront du nid pendant les premières pluies.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le statut des sous-espèces est controversé[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le statut des sous-espèces est controversé.
 </t>
         </is>
       </c>
@@ -640,9 +660,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Johann Friedrich von Eschscholtz[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Johann Friedrich von Eschscholtz.
 </t>
         </is>
       </c>
